--- a/bin/Debug/net6.0-windows/test.xlsx
+++ b/bin/Debug/net6.0-windows/test.xlsx
@@ -6,33 +6,69 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Отчет" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">This is a Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gfh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghnb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nfghfg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Дата проведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уровень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Награды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поощерение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номинации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продолжительность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название Оимпиады</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Местопроведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРограмирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАзвание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Место проведения</t>
   </si>
 </sst>
 </file>
@@ -84,13 +120,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -102,13 +138,71 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/net6.0-windows/test.xlsx
+++ b/bin/Debug/net6.0-windows/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t xml:space="preserve">Дата проведения</t>
   </si>
@@ -69,6 +69,39 @@
   </si>
   <si>
     <t xml:space="preserve">Место проведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">название</t>
   </si>
 </sst>
 </file>
@@ -205,6 +238,64 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/Debug/net6.0-windows/test.xlsx
+++ b/bin/Debug/net6.0-windows/test.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">ФИО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название Оимпиады</t>
+  </si>
   <si>
     <t xml:space="preserve">Дата проведения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уровень</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вид</t>
   </si>
   <si>
     <t xml:space="preserve">Награды</t>
@@ -29,25 +29,13 @@
     <t xml:space="preserve">Поощерение</t>
   </si>
   <si>
-    <t xml:space="preserve">Номинации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продолжительность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название Оимпиады</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Местопроведения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-20</t>
+    <t xml:space="preserve">The Student collection is empty.</t>
   </si>
   <si>
     <t xml:space="preserve">НАзвание</t>
   </si>
   <si>
-    <t xml:space="preserve">Место проведения</t>
+    <t xml:space="preserve">2022-12-20</t>
   </si>
 </sst>
 </file>
@@ -113,28 +101,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -142,18 +118,6 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/Debug/net6.0-windows/test.xlsx
+++ b/bin/Debug/net6.0-windows/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">Поощерение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Student collection is empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАзвание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-20</t>
   </si>
 </sst>
 </file>
@@ -102,23 +93,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/Debug/net6.0-windows/test.xlsx
+++ b/bin/Debug/net6.0-windows/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -27,6 +27,36 @@
   </si>
   <si>
     <t xml:space="preserve">Поощерение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дима1 Дима2 Дима3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грамота</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Именная стипендия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfg ghj ghj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крутая олимпиада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диплом III степени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без поощрения</t>
   </si>
 </sst>
 </file>
@@ -93,6 +123,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/Debug/net6.0-windows/test.xlsx
+++ b/bin/Debug/net6.0-windows/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -29,34 +29,61 @@
     <t xml:space="preserve">Поощерение</t>
   </si>
   <si>
-    <t xml:space="preserve">Дима1 Дима2 Дима3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.02.06</t>
+    <t xml:space="preserve">Соколловский Кирилл Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeforces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диплом II степени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Благодарность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Симрок Ян Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT-Cup 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без награды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без поощрения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рипинский Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022.11.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липницкий Никита Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Журавль</t>
   </si>
   <si>
     <t xml:space="preserve">Грамота</t>
   </si>
   <si>
-    <t xml:space="preserve">Именная стипендия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfg ghj ghj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">крутая олимпиада</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.02.14</t>
+    <t xml:space="preserve">Международной студенческой олимпиады</t>
   </si>
   <si>
     <t xml:space="preserve">Диплом III степени</t>
   </si>
   <si>
-    <t xml:space="preserve">Без поощрения</t>
+    <t xml:space="preserve">Доска почета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конференция по логистике</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертификат</t>
   </si>
 </sst>
 </file>
@@ -148,13 +175,81 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
